--- a/ltspice/calculation.xlsx
+++ b/ltspice/calculation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imprayudi\Documents\workspace\ad8066_bandpass-filter\ltspice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imprayudi\Documents\workspace\ad8066_filter\ltspice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>C1</t>
   </si>
@@ -54,13 +54,22 @@
   </si>
   <si>
     <t>Hz</t>
+  </si>
+  <si>
+    <t>implemented</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>designator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +77,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,10 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,62 +400,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="4">
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <v>4700</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="4">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>4.6999999999999997E-8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <v>2.7E-10</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="4">
+        <v>2.1E-10</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>10000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>590000</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="4">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -436,12 +497,16 @@
         <f>C2*C5</f>
         <v>0.47</v>
       </c>
-      <c r="F7" s="1">
-        <f>F2*F5</f>
+      <c r="E7" s="1">
+        <f>E2*E5</f>
         <v>5.9</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <f>G2*G5</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -449,12 +514,16 @@
         <f>C2*C3</f>
         <v>4.6999999999999993E-3</v>
       </c>
-      <c r="F8" s="1">
-        <f>F2*F3</f>
+      <c r="E8" s="1">
+        <f>E2*E3</f>
         <v>4.7000000000000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="4">
+        <f>G2*G3</f>
+        <v>8.4582000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -462,12 +531,22 @@
         <f>C4*C5</f>
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="F9" s="1">
-        <f>F4*F5</f>
+      <c r="E9" s="1">
+        <f>E4*E5</f>
         <v>1.593E-4</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <f>G4*G5</f>
+        <v>1.5750000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -478,15 +557,22 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2">
-        <f>1/F8</f>
+      <c r="E12" s="2">
+        <f>1/E8</f>
         <v>21.276595744680847</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="6">
+        <f>1/G8</f>
+        <v>11.82284646851576</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -497,15 +583,23 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2">
-        <f>1/F9</f>
+      <c r="E13" s="2">
+        <f>1/E9</f>
         <v>6277.4639045825488</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6">
+        <f>1/G9</f>
+        <v>6349.2063492063489</v>
+      </c>
+      <c r="H13" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>